--- a/fish/Custos_viagem_Cristian.xlsx
+++ b/fish/Custos_viagem_Cristian.xlsx
@@ -30,9 +30,8 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="0"/>
+            <family val="2"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Inserir a data de cada despesa ou custo, ou seja, quando de fato foi pago por você, correspondendo à informação indicada no cupom fiscal ou DANFE.
@@ -45,9 +44,8 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="0"/>
+            <family val="2"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Inserir a data que você está solicitando o reembolso.
@@ -60,9 +58,8 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="0"/>
+            <family val="2"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Inserir seu nome completo.
@@ -75,9 +72,8 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="0"/>
+            <family val="2"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Inserir o nome completo de seu líder de área (pessoa com autonomia para aprovar sua solicitação).
@@ -90,9 +86,8 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="0"/>
+            <family val="2"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Preencha resumidamente a aplicação do recurso solicitado, conforme os exemplos:
@@ -108,9 +103,8 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="0"/>
+            <family val="2"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Preencha o valor utilizado conforme cupom fiscal ou DANFE.
@@ -123,9 +117,8 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="0"/>
+            <family val="2"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Encontre a opção mais adequada para justificar sua solicitação de reembolso. Caso selecione "outros", em cada item da tabela abaixo, descrever a justificativa para cada uso.
@@ -138,9 +131,8 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="0"/>
+            <family val="2"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Selecione o centro de custos que deve ser responsabilizado pelo pagamento dessa despesa, custo ou investimento.
@@ -153,9 +145,8 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="0"/>
+            <family val="2"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Preencha somente se for necessário. Neste campo, você poderá incluir alguma observação para o setor financeiro ou o seu líder para facilitar a compreensão do gasto durante a aprovação.
@@ -168,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t xml:space="preserve">Relatório de Reembolso</t>
   </si>
@@ -209,27 +200,9 @@
     <t xml:space="preserve">Breve descritivo da solicitação:</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Viagem de ida e volta Curitiba/Piracicaba para reunião com a equipe Fishtrader; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Viagem para reunião com parceiro do projeto FishTrader em Santa Fé Do Sul/SP; 
+    <t xml:space="preserve">Viagem de ida e volta Curitiba/Piracicaba para reunião com a equipe Fishtrader; Viagem para reunião com parceiro do projeto FishTrader em Santa Fé Do Sul/SP; 
 Despesa com hospedagem em Piracicaba; 
 Despesa com hospedagem em Santa Fé do sul/ SP.</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Data</t>
@@ -278,6 +251,9 @@
   </si>
   <si>
     <t xml:space="preserve">Passagem volta Piracicaba/Curitiba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uber para Casa</t>
   </si>
   <si>
     <t xml:space="preserve">Valor total:</t>
@@ -293,11 +269,12 @@
     <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="167" formatCode="[$R$ -416]#,##0.00"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -332,19 +309,6 @@
     <font>
       <b val="true"/>
       <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
@@ -453,11 +417,15 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -522,7 +490,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -637,9 +605,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:colOff>1142640</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>582480</xdr:rowOff>
+      <xdr:rowOff>582120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -653,7 +621,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="988560" y="478800"/>
-          <a:ext cx="966600" cy="499320"/>
+          <a:ext cx="966240" cy="498960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -676,698 +644,705 @@
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
+      <selection pane="topLeft" activeCell="K29" activeCellId="0" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.31"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="A1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="49.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="12" t="n">
+      <c r="C5" s="13" t="n">
         <v>45700</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="11" t="s">
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6"/>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="11" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6"/>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="17" t="s">
+      <c r="C9" s="12"/>
+      <c r="D9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6"/>
-      <c r="B14" s="18" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18" t="s">
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6"/>
-      <c r="B15" s="19" t="n">
+      <c r="A15" s="7"/>
+      <c r="B15" s="20" t="n">
         <v>45712</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="20" t="n">
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="21" t="n">
         <v>25</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6"/>
-      <c r="B16" s="19" t="n">
+      <c r="A16" s="7"/>
+      <c r="B16" s="20" t="n">
         <v>45712</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="20" t="n">
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="21" t="n">
         <v>250</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6"/>
-      <c r="B17" s="19" t="n">
+      <c r="A17" s="7"/>
+      <c r="B17" s="20" t="n">
         <v>45713</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="20" t="n">
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="21" t="n">
         <v>25</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6"/>
-      <c r="B18" s="19" t="n">
+      <c r="A18" s="7"/>
+      <c r="B18" s="20" t="n">
         <v>45713</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="20" t="n">
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="21" t="n">
         <v>200</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6"/>
-      <c r="B19" s="19" t="n">
+      <c r="A19" s="7"/>
+      <c r="B19" s="20" t="n">
         <v>45714</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="20" t="n">
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="21" t="n">
         <v>500</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6"/>
-      <c r="B20" s="19" t="n">
+      <c r="A20" s="7"/>
+      <c r="B20" s="20" t="n">
         <v>45714</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="20" t="n">
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="21" t="n">
         <v>350</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6"/>
-      <c r="B21" s="19" t="n">
+      <c r="A21" s="7"/>
+      <c r="B21" s="20" t="n">
         <v>45715</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="20" t="n">
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="21" t="n">
         <v>200</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6"/>
-      <c r="B22" s="19" t="n">
+      <c r="A22" s="7"/>
+      <c r="B22" s="20" t="n">
         <v>45716</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="20" t="n">
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="21" t="n">
         <v>250</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="20" t="n">
+        <v>45716</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="21" t="n">
+        <v>25</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="6"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
+      <c r="A41" s="7"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="6"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
+      <c r="A42" s="7"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="6"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
+      <c r="A43" s="7"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="6"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
+      <c r="A44" s="7"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="6"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
+      <c r="A45" s="7"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
+      <c r="A46" s="7"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="6"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
+      <c r="A47" s="7"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="6"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
+      <c r="A48" s="7"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="6"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
+      <c r="A49" s="7"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="6"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="G50" s="9"/>
+      <c r="A50" s="7"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="6"/>
-      <c r="B51" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C51" s="22" t="n">
+      <c r="A51" s="7"/>
+      <c r="B51" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51" s="23" t="n">
         <f aca="false">SUM(F15:F49)</f>
-        <v>1800</v>
-      </c>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
+        <v>1825</v>
+      </c>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="6"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
+      <c r="A52" s="7"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="23"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="24"/>
-      <c r="I53" s="24"/>
+      <c r="A53" s="24"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="81">
@@ -1455,15 +1430,15 @@
   </mergeCells>
   <dataValidations count="3">
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C41:C49" type="list">
-      <formula1>#REF!</formula1>
+      <formula1>#ref!</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G5" type="list">
-      <formula1>#REF!</formula1>
+      <formula1>#ref!</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6" type="list">
-      <formula1>#REF!</formula1>
+      <formula1>#ref!</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
